--- a/Data BootCamp.xlsx
+++ b/Data BootCamp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -76,24 +76,9 @@
     <t xml:space="preserve">https://www.youtube.com/@samiseedsindonesia3973</t>
   </si>
   <si>
-    <t xml:space="preserve">Windo Baharko Ginting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windo Bintang Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/windo.bintangasia</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMM02</t>
   </si>
   <si>
-    <t xml:space="preserve">Anton Sulaiman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/antonsulaiman95</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cayadi Santosa</t>
   </si>
   <si>
@@ -103,45 +88,9 @@
     <t xml:space="preserve">https://www.facebook.com/cayadi.santosa</t>
   </si>
   <si>
-    <t xml:space="preserve">M Nasir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nasir Bintang Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nasir.smk2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yospik Mirizal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yospiqmi Rizal Bintang Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/yospiqmi.rizal</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMM03</t>
   </si>
   <si>
-    <t xml:space="preserve">Dede Jaenudin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bintang asia lembang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/dede.jaenudin.315080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ikhwan sadid albatsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ikhwan sadid albatsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/ikhwansadid.albatsi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jaelani</t>
   </si>
   <si>
@@ -154,12 +103,6 @@
     <t xml:space="preserve">https://www.youtube.com/@jaelaniasnaip1215</t>
   </si>
   <si>
-    <t xml:space="preserve">Masruri S.P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masruri merdeka</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMM04</t>
   </si>
   <si>
@@ -190,42 +133,9 @@
     <t xml:space="preserve">https://www.youtube.com/@IjunChannelBintangAsia</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohammad Iqbal Agustiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammad Iqbal agustiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/mohammad.agustiana</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMM05</t>
   </si>
   <si>
-    <t xml:space="preserve">Muhammad Nizar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nizar Bintang Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nizar.setia.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhammad Yavi Ilham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busu Ko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/yavi.ko.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rachmat Hidayat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bintang Asia Sampit Seruyan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sain Muhammad Alfian</t>
   </si>
   <si>
@@ -235,15 +145,6 @@
     <t xml:space="preserve">AMM06</t>
   </si>
   <si>
-    <t xml:space="preserve">Bambang Prambudi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100004963667798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/@bambangbintangasia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jefri</t>
   </si>
   <si>
@@ -254,27 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/@Jefribintangasia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohamad Cali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muhamad Cali Ahmad Faiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/muhamad.cali.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtube.com/@mohamadcali8259/videos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moh Iqbal T olli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bintang Asia Gorontalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/ikhbal.kulukulu</t>
   </si>
   <si>
     <t xml:space="preserve">Nurul Hardianti</t>
@@ -296,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,23 +229,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,12 +241,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -429,7 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,52 +337,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -776,10 +591,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,468 +692,178 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" s="17" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="E5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>43</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" s="22" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="G12" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" s="22" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1349,31 +874,17 @@
     <hyperlink ref="F2" r:id="rId1" display="https://www.facebook.com/ilham.ajo.37604"/>
     <hyperlink ref="F3" r:id="rId2" display="https://www.facebook.com/renzi.prayuda"/>
     <hyperlink ref="F4" r:id="rId3" display="https://www.youtube.com/@samiseedsindonesia3973"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://www.facebook.com/windo.bintangasia"/>
-    <hyperlink ref="F6" r:id="rId5" display="https://www.facebook.com/antonsulaiman95"/>
-    <hyperlink ref="F7" r:id="rId6" display="https://www.facebook.com/cayadi.santosa"/>
-    <hyperlink ref="F8" r:id="rId7" display="https://www.facebook.com/nasir.smk2"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://www.facebook.com/yospiqmi.rizal"/>
-    <hyperlink ref="F10" r:id="rId9" display="https://www.facebook.com/dede.jaenudin.315080"/>
-    <hyperlink ref="F11" r:id="rId10" display="https://www.facebook.com/ikhwansadid.albatsi"/>
-    <hyperlink ref="F12" r:id="rId11" display="https://www.facebook.com/jaelani.zhendt"/>
-    <hyperlink ref="G12" r:id="rId12" display="https://www.youtube.com/@jaelaniasnaip1215"/>
-    <hyperlink ref="F14" r:id="rId13" display="https://www.facebook.com/profile.php?id=61556000296940"/>
-    <hyperlink ref="F15" r:id="rId14" display="https://www.facebook.com/juned.82"/>
-    <hyperlink ref="F16" r:id="rId15" display="https://www.youtube.com/@IjunChannelBintangAsia"/>
-    <hyperlink ref="F17" r:id="rId16" display="https://www.facebook.com/mohammad.agustiana"/>
-    <hyperlink ref="F18" r:id="rId17" display="https://www.facebook.com/nizar.setia.3"/>
-    <hyperlink ref="F19" r:id="rId18" display="https://www.facebook.com/yavi.ko.7"/>
-    <hyperlink ref="F21" r:id="rId19" display="https://www.facebook.com/profile.php?id=100021050502054"/>
-    <hyperlink ref="F22" r:id="rId20" display="https://www.facebook.com/profile.php?id=100004963667798"/>
-    <hyperlink ref="G22" r:id="rId21" display="https://www.youtube.com/@bambangbintangasia"/>
-    <hyperlink ref="F23" r:id="rId22" display="https://www.facebook.com/profile.php?id=61558480822422"/>
-    <hyperlink ref="G23" r:id="rId23" display="https://www.youtube.com/@Jefribintangasia"/>
-    <hyperlink ref="F24" r:id="rId24" display="https://www.facebook.com/muhamad.cali.98"/>
-    <hyperlink ref="G24" r:id="rId25" display="https://youtube.com/@mohamadcali8259/videos"/>
-    <hyperlink ref="F25" r:id="rId26" display="https://www.facebook.com/ikhbal.kulukulu"/>
-    <hyperlink ref="F26" r:id="rId27" display="https://www.facebook.com/nurul.hardianti.9237"/>
-    <hyperlink ref="G26" r:id="rId28" display="https://www.youtube.com/@nrllhardianti1111/shorts"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.facebook.com/cayadi.santosa"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://www.facebook.com/jaelani.zhendt"/>
+    <hyperlink ref="G6" r:id="rId6" display="https://www.youtube.com/@jaelaniasnaip1215"/>
+    <hyperlink ref="F7" r:id="rId7" display="https://www.facebook.com/profile.php?id=61556000296940"/>
+    <hyperlink ref="F8" r:id="rId8" display="https://www.facebook.com/juned.82"/>
+    <hyperlink ref="F9" r:id="rId9" display="https://www.youtube.com/@IjunChannelBintangAsia"/>
+    <hyperlink ref="F10" r:id="rId10" display="https://www.facebook.com/profile.php?id=100021050502054"/>
+    <hyperlink ref="F11" r:id="rId11" display="https://www.facebook.com/profile.php?id=61558480822422"/>
+    <hyperlink ref="G11" r:id="rId12" display="https://www.youtube.com/@Jefribintangasia"/>
+    <hyperlink ref="F12" r:id="rId13" display="https://www.facebook.com/nurul.hardianti.9237"/>
+    <hyperlink ref="G12" r:id="rId14" display="https://www.youtube.com/@nrllhardianti1111/shorts"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Data BootCamp.xlsx
+++ b/Data BootCamp.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UPDATE" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="FINAL" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -167,6 +168,138 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/@nrllhardianti1111/shorts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Influencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@infarmid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/kebunmahobi/?hl=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapta sebayang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influencer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/groups/Kpjkaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invari Dimas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/ivanri.dimas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petani desa mandiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@PetaniDesaMandiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedi TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@DEDI_TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tombro Widodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@TombroWidodo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugito Semangko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influencer / Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/sugito.semangko.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helly seedling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/profile.php?id=100069205464353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment Pertanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@experimentpertanian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pencapar Benih Semangka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/pencapar.benihsemangka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toko derees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@tokder-tv/videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milfar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@milfar_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alkahfi Sutikno  (Basofi Abdullah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petani Kunci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/alkahfi.sutikno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saripul Nasution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/saripul.muda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@RoisFarm/videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tani multi baro (Kunto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@TaniMuktiBaritoKuala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammadjafar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/jafaremba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/@samiseedsindonesia3973/videos</t>
   </si>
 </sst>
 </file>
@@ -176,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +331,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -229,8 +377,30 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +411,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,7 +436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,11 +460,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,11 +484,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,11 +496,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,7 +508,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,22 +516,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Hyperlink 2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="22"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
@@ -367,7 +580,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -399,7 +612,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF467886"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -593,7 +806,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -894,4 +1107,394 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.youtube.com/@infarmid"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.instagram.com/kebunmahobi/?hl=en"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.facebook.com/groups/Kpjkaro"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.facebook.com/ivanri.dimas"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://www.youtube.com/@PetaniDesaMandiri"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.youtube.com/@DEDI_TV"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://www.youtube.com/@TombroWidodo"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://www.facebook.com/sugito.semangko.9"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.facebook.com/profile.php?id=100069205464353"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://www.youtube.com/@experimentpertanian"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://www.facebook.com/pencapar.benihsemangka"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://www.youtube.com/@tokder-tv/videos"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://www.youtube.com/@milfar_id"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://www.facebook.com/alkahfi.sutikno"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://www.facebook.com/saripul.muda"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://www.youtube.com/@RoisFarm/videos"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://www.youtube.com/@TaniMuktiBaritoKuala"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://www.facebook.com/jafaremba"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://www.facebook.com/renzi.prayuda"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://www.facebook.com/cayadi.santosa"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://www.facebook.com/jaelani.zhendt"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://www.facebook.com/juned.82"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://www.facebook.com/profile.php?id=100021050502054"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://www.facebook.com/nurul.hardianti.9237"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://www.youtube.com/@samiseedsindonesia3973/videos"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://www.facebook.com/ilham.ajo.37604"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://www.youtube.com/@Jefribintangasia"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://www.youtube.com/@IjunChannelBintangAsia"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://www.facebook.com/profile.php?id=61556000296940"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Data BootCamp.xlsx
+++ b/Data BootCamp.xlsx
@@ -185,7 +185,7 @@
     <t xml:space="preserve">Mahobi</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.instagram.com/kebunmahobi/?hl=en</t>
+    <t xml:space="preserve">https://www.facebook.com/p/Kebun-Mahobi-100072395977057</t>
   </si>
   <si>
     <t xml:space="preserve">Sapta sebayang</t>
@@ -471,7 +471,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,6 +541,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1117,14 +1121,14 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57.39"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1160,7 @@
       <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1249,7 +1253,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1282,7 +1286,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -1420,7 +1424,7 @@
       <c r="B27" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1431,7 +1435,7 @@
       <c r="B28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1460,7 +1464,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.youtube.com/@infarmid"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://www.instagram.com/kebunmahobi/?hl=en"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.facebook.com/p/Kebun-Mahobi-100072395977057"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.facebook.com/groups/Kpjkaro"/>
     <hyperlink ref="C5" r:id="rId4" display="https://www.facebook.com/ivanri.dimas"/>
     <hyperlink ref="C6" r:id="rId5" display="https://www.youtube.com/@PetaniDesaMandiri"/>
